--- a/biology/Botanique/Ficoïde/Ficoïde.xlsx
+++ b/biology/Botanique/Ficoïde/Ficoïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fico%C3%AFde</t>
+          <t>Ficoïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ficoïde est le nom vernaculaire donné en français à un certain nombre de plantes de la famille des Aizoacées, qualifiées aussi de « tapis magique » par les pépiniéristes. Il comprend des plantes tapissantes très florifères, à fleurs larges et colorées, classées par les botanistes dans des genres différents[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ficoïde est le nom vernaculaire donné en français à un certain nombre de plantes de la famille des Aizoacées, qualifiées aussi de « tapis magique » par les pépiniéristes. Il comprend des plantes tapissantes très florifères, à fleurs larges et colorées, classées par les botanistes dans des genres différents.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fico%C3%AFde</t>
+          <t>Ficoïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Physiologie, comportement et écologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les caractéristiques générales des ficoïdes sont celles des Aizoaceae, avec des nuances pour chaque espèce : voir les articles détaillés pour plus d'informations sur leur description ou leur mode de vie.
-Les ficoïdes sont considérées comme des plantes exotiques envahissantes qui nécessitent parfois des campagnes d'arrachage ; c'est le cas notamment dans les Calanques de Marseille où l'on cherche à l'éradiquer puisqu'elle nuit a des variétés endémiques telles que l’emblématique astragale de Marseille[2].
+Les ficoïdes sont considérées comme des plantes exotiques envahissantes qui nécessitent parfois des campagnes d'arrachage ; c'est le cas notamment dans les Calanques de Marseille où l'on cherche à l'éradiquer puisqu'elle nuit a des variétés endémiques telles que l’emblématique astragale de Marseille.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fico%C3%AFde</t>
+          <t>Ficoïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,37 +557,108 @@
           <t>Noms français et noms scientifiques correspondants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés[3] en français. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste alphabétique de noms vulgaires ou de noms vernaculaires attestés en français. 
 Note : certaines espèces ont plusieurs noms et, les classifications évoluant encore, certains noms scientifiques ont peut-être un autre synonyme valide.
-Ficoïde tout court
-Ficoïde - espèce du genre Mesembryanthemum[4],[5],[6],[7]
-Ficoïde - Aptenia cordifolia ou Litocarpus cordifolia ou Mesembryanthemum cordifolia : ou « Aptenia »[8]
-Ficoïde - Carpobrotus acinaciformis : ou « Griffe de sorcière », « Doigt de sorcière »[9]
-Ficoïde - Carpobrotus edulis : ou « Griffe de sorcière », « Figue des hottentots », « Doigt de sorcière »[10]
-Ficoïde - Delosperma cooperi[11]
-Ficoïde - Dorotheanthus bellidiformis[12]
-Ficoïde - Dorotheanthus littlewoodii[13]
-Ficoïde - Mesembryanthemum criniflorum[14]
-Noms composés
-Ficoïde bleuâtre - Carpobrotus glaucescens[15],[16]
-Ficoïde du Chili - Carpobrotus chilensis[6]
-Ficoïde comestible - Carpobrotus edulis[15],[5]
-Ficoïde à feuilles cordiformes - Ficoïde à feuilles en cœur[6]
-Ficoïde à cristaux - Mesembryanthemum crystallinum[15],[6],[16]
-Ficoïde à feuilles en cœur - Aptenia cordifolia[15]
-Ficoïde à feuilles en sabre - Carpobrotus acinaciformis[15],[16]
-Ficoïde à fleurs nodales - Mesembryanthemum nodiflorum[15],[16]
-Ficoïde glaciale - voir Ficoïde à cristaux[15]
-Ficoïde glauque - voir Ficoïde bleuâtre[16]
-Ficoïde jaune - Lampranthus serpens[17]
-Ficoïde orange - Lampranthus aurantiacus[18]
-Ficoïde de Rehnelt - Hereroa rehneltianum[6]
-Ficoïde rouge - Lampranthus coccineus[19]
-Ficoïde-tigre - Faucaria tigrina[6]
-Ficoïde tricolore - Mesembryanthemum tricolore[20]
-Ficoïde violet - Lampranthus calcaratus[21]</t>
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ficoïde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Noms français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Ficoïde tout court</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Ficoïde - espèce du genre Mesembryanthemum
+Ficoïde - Aptenia cordifolia ou Litocarpus cordifolia ou Mesembryanthemum cordifolia : ou « Aptenia »
+Ficoïde - Carpobrotus acinaciformis : ou « Griffe de sorcière », « Doigt de sorcière »
+Ficoïde - Carpobrotus edulis : ou « Griffe de sorcière », « Figue des hottentots », « Doigt de sorcière »
+Ficoïde - Delosperma cooperi
+Ficoïde - Dorotheanthus bellidiformis
+Ficoïde - Dorotheanthus littlewoodii
+Ficoïde - Mesembryanthemum criniflorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ficoïde</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fico%C3%AFde</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Noms français et noms scientifiques correspondants</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms composés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ficoïde bleuâtre - Carpobrotus glaucescens,
+Ficoïde du Chili - Carpobrotus chilensis
+Ficoïde comestible - Carpobrotus edulis,
+Ficoïde à feuilles cordiformes - Ficoïde à feuilles en cœur
+Ficoïde à cristaux - Mesembryanthemum crystallinum
+Ficoïde à feuilles en cœur - Aptenia cordifolia
+Ficoïde à feuilles en sabre - Carpobrotus acinaciformis,
+Ficoïde à fleurs nodales - Mesembryanthemum nodiflorum,
+Ficoïde glaciale - voir Ficoïde à cristaux
+Ficoïde glauque - voir Ficoïde bleuâtre
+Ficoïde jaune - Lampranthus serpens
+Ficoïde orange - Lampranthus aurantiacus
+Ficoïde de Rehnelt - Hereroa rehneltianum
+Ficoïde rouge - Lampranthus coccineus
+Ficoïde-tigre - Faucaria tigrina
+Ficoïde tricolore - Mesembryanthemum tricolore
+Ficoïde violet - Lampranthus calcaratus</t>
         </is>
       </c>
     </row>
